--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_36.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_36.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9936009599396114</v>
+        <v>0.9245568855344118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7185949559402491</v>
+        <v>0.7024232758368352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7060966170523379</v>
+        <v>0.6678634876993493</v>
       </c>
       <c r="E2" t="n">
-        <v>0.991741741462699</v>
+        <v>0.9698299756798785</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02685540223458346</v>
+        <v>0.3166186124298218</v>
       </c>
       <c r="G2" t="n">
-        <v>1.881756825378637</v>
+        <v>1.989896924693906</v>
       </c>
       <c r="H2" t="n">
-        <v>1.051275359306501</v>
+        <v>1.188033046117927</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04488463341253131</v>
+        <v>0.07291961095005724</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2803067548386144</v>
+        <v>1.627194245092838</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1638761795825844</v>
+        <v>0.5626887349412832</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003745779547545</v>
+        <v>0.7413378932608405</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1708527278178728</v>
+        <v>0.5866435593139917</v>
       </c>
       <c r="N2" t="n">
-        <v>137.2345765554445</v>
+        <v>36.30011468958501</v>
       </c>
       <c r="O2" t="n">
-        <v>216.4615051718775</v>
+        <v>57.02100371234442</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9936054155655706</v>
+        <v>0.9245702804310769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.718502628411461</v>
+        <v>0.7018756311846472</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7064903163185452</v>
+        <v>0.6674606231752189</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9914314322517315</v>
+        <v>0.9664205168132509</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02683670292559125</v>
+        <v>0.3165623969139885</v>
       </c>
       <c r="G3" t="n">
-        <v>1.882374219988773</v>
+        <v>1.993559027004759</v>
       </c>
       <c r="H3" t="n">
-        <v>1.049867119859273</v>
+        <v>1.189474069161314</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04657120148446763</v>
+        <v>0.08116012184480291</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2772458875949648</v>
+        <v>1.637331878426446</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1638191164839783</v>
+        <v>0.5626387801369441</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003743171376251</v>
+        <v>0.7413838186208352</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1707932354250221</v>
+        <v>0.586591477830211</v>
       </c>
       <c r="N3" t="n">
-        <v>137.2359696324857</v>
+        <v>36.30046982036216</v>
       </c>
       <c r="O3" t="n">
-        <v>216.4628982489187</v>
+        <v>57.02135884312157</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9936070524886447</v>
+        <v>0.9116399915104917</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7184099288680462</v>
+        <v>0.6840794048635155</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7068767699650915</v>
+        <v>0.6328370528694967</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9911167085080528</v>
+        <v>0.8051442059476587</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02682983310962422</v>
+        <v>0.3708280534335083</v>
       </c>
       <c r="G4" t="n">
-        <v>1.882994102262429</v>
+        <v>2.112562474358254</v>
       </c>
       <c r="H4" t="n">
-        <v>1.048484797573446</v>
+        <v>1.313320572554928</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04828176307532046</v>
+        <v>0.4709578137192562</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2742133726304241</v>
+        <v>1.808600355325684</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1637981474547995</v>
+        <v>0.6089565283610221</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003742213177379</v>
+        <v>0.6970513994645429</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1707713737008592</v>
+        <v>0.6348810684871448</v>
       </c>
       <c r="N4" t="n">
-        <v>137.2364816697075</v>
+        <v>35.98403358328665</v>
       </c>
       <c r="O4" t="n">
-        <v>216.4634102861406</v>
+        <v>56.70492260604605</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9936059443252647</v>
+        <v>0.9080360812072565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7183168639869696</v>
+        <v>0.6796548273615053</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7072558434141534</v>
+        <v>0.6239592699379923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9907977902931401</v>
+        <v>0.768934001963099</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02683448383426857</v>
+        <v>0.3859528940185601</v>
       </c>
       <c r="G5" t="n">
-        <v>1.883616427550713</v>
+        <v>2.142149644487502</v>
       </c>
       <c r="H5" t="n">
-        <v>1.047128873826093</v>
+        <v>1.345075887337488</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05001512212435934</v>
+        <v>0.5584762710781155</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2726171560597733</v>
+        <v>1.828629224732804</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1638123433513744</v>
+        <v>0.6212510716437921</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003742861858382</v>
+        <v>0.6846951355677366</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1707861739461409</v>
+        <v>0.6476990159306754</v>
       </c>
       <c r="N5" t="n">
-        <v>137.2361350166672</v>
+        <v>35.90407990637136</v>
       </c>
       <c r="O5" t="n">
-        <v>216.4630636331003</v>
+        <v>56.62496892913077</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9936021478495978</v>
+        <v>0.9036456530898469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7182235221612819</v>
+        <v>0.6735508184191645</v>
       </c>
       <c r="D6" t="n">
-        <v>0.707627478103781</v>
+        <v>0.6143511425874262</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9904747922865962</v>
+        <v>0.7279288727304124</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02685041683049143</v>
+        <v>0.4043785816158184</v>
       </c>
       <c r="G6" t="n">
-        <v>1.884240604768886</v>
+        <v>2.182967180391312</v>
       </c>
       <c r="H6" t="n">
-        <v>1.045799558089913</v>
+        <v>1.379443601759229</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05177065533408117</v>
+        <v>0.6575838501399638</v>
       </c>
       <c r="J6" t="n">
-        <v>0.271484034268974</v>
+        <v>1.848145709538128</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1638609679896083</v>
+        <v>0.6359076832495566</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003745084185601</v>
+        <v>0.6696422391651894</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1708368686358913</v>
+        <v>0.662979589835866</v>
       </c>
       <c r="N6" t="n">
-        <v>137.2349478674693</v>
+        <v>35.81080751320377</v>
       </c>
       <c r="O6" t="n">
-        <v>216.4618764839024</v>
+        <v>56.53169653596318</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9935957852665399</v>
+        <v>0.9013943515521985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.718129873676838</v>
+        <v>0.6702620356685747</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7079925095568249</v>
+        <v>0.6097850013645836</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9901480448197605</v>
+        <v>0.7079283888054544</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02687711923048531</v>
+        <v>0.4138268125651979</v>
       </c>
       <c r="G7" t="n">
-        <v>1.884866832615574</v>
+        <v>2.204959285787958</v>
       </c>
       <c r="H7" t="n">
-        <v>1.044493861748114</v>
+        <v>1.395776424153257</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0535465673137257</v>
+        <v>0.7059241329036121</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2703624912533181</v>
+        <v>1.856633634184529</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1639424265725175</v>
+        <v>0.6432937218450044</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003748808624464</v>
+        <v>0.6619234910361091</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1709217950793175</v>
+        <v>0.6706800673855297</v>
       </c>
       <c r="N7" t="n">
-        <v>137.2329598811108</v>
+        <v>35.76461543963446</v>
       </c>
       <c r="O7" t="n">
-        <v>216.4598884975438</v>
+        <v>56.48550446239387</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9935868720654903</v>
+        <v>0.8958865226223695</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7180360111723562</v>
+        <v>0.6647888216174168</v>
       </c>
       <c r="D8" t="n">
-        <v>0.70835039165831</v>
+        <v>0.5911534592800561</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9898175384754384</v>
+        <v>0.6429046856499274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02691452602855582</v>
+        <v>0.4369419923349667</v>
       </c>
       <c r="G8" t="n">
-        <v>1.885494491615241</v>
+        <v>2.241558693349884</v>
       </c>
       <c r="H8" t="n">
-        <v>1.043213738222298</v>
+        <v>1.46242036987073</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05534290924688336</v>
+        <v>0.8630835400795206</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2692612144233459</v>
+        <v>1.885441074277707</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1640564720715273</v>
+        <v>0.6610158790339055</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003754026108006</v>
+        <v>0.6430395061338381</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1710406957313268</v>
+        <v>0.689156693495885</v>
       </c>
       <c r="N8" t="n">
-        <v>137.2301782741218</v>
+        <v>35.65590966669924</v>
       </c>
       <c r="O8" t="n">
-        <v>216.4571068905548</v>
+        <v>56.37679868945865</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9935755495258649</v>
+        <v>0.8917933289000677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7179418490136205</v>
+        <v>0.6605167119355194</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7087017055867078</v>
+        <v>0.5758984051392868</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9894835046055359</v>
+        <v>0.5878635837868242</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02696204430521743</v>
+        <v>0.4541202507610922</v>
       </c>
       <c r="G9" t="n">
-        <v>1.886124154404284</v>
+        <v>2.270126310463989</v>
       </c>
       <c r="H9" t="n">
-        <v>1.041957108670772</v>
+        <v>1.516986813993401</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05715842370797954</v>
+        <v>0.9961154425908869</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2681712487496679</v>
+        <v>1.895226337951462</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1642012311318567</v>
+        <v>0.6738844491165323</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003760653936079</v>
+        <v>0.6290056990859464</v>
       </c>
       <c r="M9" t="n">
-        <v>0.171191617484547</v>
+        <v>0.7025731052485417</v>
       </c>
       <c r="N9" t="n">
-        <v>137.2266503369358</v>
+        <v>35.57878649298941</v>
       </c>
       <c r="O9" t="n">
-        <v>216.4535789533689</v>
+        <v>56.29967551574882</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9935618434914308</v>
+        <v>0.8893837904918771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.717847553038617</v>
+        <v>0.657154084335654</v>
       </c>
       <c r="D10" t="n">
-        <v>0.709046195639037</v>
+        <v>0.5660956024649635</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9891460942481789</v>
+        <v>0.5438989028690462</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02701956559970758</v>
+        <v>0.4642325680057047</v>
       </c>
       <c r="G10" t="n">
-        <v>1.886754712023325</v>
+        <v>2.292612216707765</v>
       </c>
       <c r="H10" t="n">
-        <v>1.040724887728271</v>
+        <v>1.552050870760298</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05899228978654293</v>
+        <v>1.102376126839977</v>
       </c>
       <c r="J10" t="n">
-        <v>0.267100426767147</v>
+        <v>1.883886829955863</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1643762926936472</v>
+        <v>0.6813461440455246</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003768676980626</v>
+        <v>0.6207444245435787</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1713741317794504</v>
+        <v>0.7103524599784991</v>
       </c>
       <c r="N10" t="n">
-        <v>137.2223880471403</v>
+        <v>35.53473925635305</v>
       </c>
       <c r="O10" t="n">
-        <v>216.4493166635734</v>
+        <v>56.25562827911246</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9935458431357498</v>
+        <v>0.8869312334650593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.717752973445438</v>
+        <v>0.6474496895088995</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7093846061210053</v>
+        <v>0.5691271849798283</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9888053812133243</v>
+        <v>0.5095495238522985</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02708671566966436</v>
+        <v>0.4745254251900444</v>
       </c>
       <c r="G11" t="n">
-        <v>1.887387166198412</v>
+        <v>2.357505549598902</v>
       </c>
       <c r="H11" t="n">
-        <v>1.039514413056438</v>
+        <v>1.541207075885881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06084410631653473</v>
+        <v>1.185397052766337</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2660423606882377</v>
+        <v>1.846658574432729</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1645804231057399</v>
+        <v>0.6888580588118602</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003778043042488</v>
+        <v>0.6123356575944892</v>
       </c>
       <c r="M11" t="n">
-        <v>0.171586952445794</v>
+        <v>0.718184172508245</v>
       </c>
       <c r="N11" t="n">
-        <v>137.217423735947</v>
+        <v>35.49088015849703</v>
       </c>
       <c r="O11" t="n">
-        <v>216.4443523523801</v>
+        <v>56.21176918125644</v>
       </c>
     </row>
   </sheetData>
